--- a/input/Executive Suite Room.xlsx
+++ b/input/Executive Suite Room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushize/Desktop/GPO Programming Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5AA91-1D3B-7B43-B01E-0194432935C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A002D5D-B895-5F40-A4DA-15D787F624F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="740" windowWidth="22180" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="740" windowWidth="22180" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXEC SUITE" sheetId="5" r:id="rId1"/>
@@ -303,17 +303,6 @@
     <t xml:space="preserve"> S13</t>
   </si>
   <si>
-    <t>A ON 70%
-N ON 70%
-D ON 70%
-O ON 70%
-L ON 70%
-Q ON 70%
-J ON
-M ON
-S ON 70%</t>
-  </si>
-  <si>
     <t>A OFF
 N OFF
 D OFF
@@ -325,16 +314,6 @@
 S OFF</t>
   </si>
   <si>
-    <t>A ON 10%
-N ON 10%
-D ON 10%
-O ON 10%
-L ON 10%
-Q ON 10%
-J ON
-S ON 10%</t>
-  </si>
-  <si>
     <t xml:space="preserve">E ON + 100%  </t>
   </si>
   <si>
@@ -365,11 +344,6 @@
   </si>
   <si>
     <t>I ON + 30%</t>
-  </si>
-  <si>
-    <t>N ON 70%
-L ON 100%
-S ON 70%</t>
   </si>
   <si>
     <t>N OFF
@@ -377,48 +351,137 @@
 S OFF</t>
   </si>
   <si>
-    <t>N ON 10%
-L ON 10%
-S ON 10%</t>
-  </si>
-  <si>
-    <t>Q ON 70%
-J ON
-S ON 70%</t>
-  </si>
-  <si>
     <t>Q OFF
 J OFF
 S OFF</t>
   </si>
   <si>
-    <t>Q ON 10%
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE BRIGHT
+BUTTON 2: SCENE OFF
+BUTTON 3:  SCENE SOFT
+BUTTON 4: DND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE BATH ON
+BUTTON 2: SCENE BATH OFF
+BUTTON 3:  SCENE BATH MOOD
+BUTTON 4: DEVICE F
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE BED BRIGHT
+BUTTON 2: SCENE BED OFF
+BUTTON 3:  SCENE BED SOFT
+BUTTON 4: DEVICE B
+BUTTON 5: DND
+BUTTON 6: DEVICE V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE BED BRIGHT
+BUTTON 2: SCENE BED OFF
+BUTTON 3:  SCENE BED SOFT
+BUTTON 4: DEVICE C
+BUTTON 5: DND
+BUTTON 6: DEVICE V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: DEVICE H
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE SMALL BATH ON
+BUTTON 2: SCENE SMALL BATH OFF
+BUTTON 3:  SCENE SMALL BATH MOOD
+BUTTON 4: DEVICE K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: DEVICE D
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE DINING BRIGHT
+BUTTON 2: SCENE DINING OFF
+BUTTON 3:  SCENE DINING SOFT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: SCENE LIVING BRIGHT
+BUTTON 2: SCENE LIVING OFF
+BUTTON 3:  SCENE LIVING SOFT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: GROUP BLIND GROUP OPEN
+BUTTON 2: GROUP BLIND GROUP CLOSE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUTTON 1: DEVICE N
+</t>
+  </si>
+  <si>
+    <t>BRIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASTA SCENE
+</t>
+  </si>
+  <si>
+    <t>A ON + 70%
+N ON + 70%
+D ON + 70%
+O ON + 70%
+L ON + 70%
+Q ON + 70%
 J ON
-S ON 10%</t>
-  </si>
-  <si>
-    <t>A ON 70%
-N ON 70%
-D ON 70%
-O ON 70%
-L ON 70%
-Q ON 70%
+M ON
+S ON + 70%</t>
+  </si>
+  <si>
+    <t>Q ON + 70%
+J ON
+S ON + 70%</t>
+  </si>
+  <si>
+    <t>A ON + 70%
+N ON + 70%
+D ON + 70%
+O ON + 70%
+L ON + 70%
+Q ON + 70%
 J ON
 M ON
 G ON
-S ON 70%</t>
-  </si>
-  <si>
-    <t>A ON 70%
-N ON 70%
-D ON 70%
-O ON 70%
-L ON 70%
-Q ON 70%
+S ON + 70%</t>
+  </si>
+  <si>
+    <t>A ON + 70%
+N ON + 70%
+D ON + 70%
+O ON + 70%
+L ON + 70%
+Q ON + 70%
 J ON
 M ON
 G ON
-S ON 70%
+S ON + 70%
 B OFF
 C OFF
 E OFF
@@ -429,92 +492,29 @@
 H OFF</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE BRIGHT
-BUTTON 2: SCENE OFF
-BUTTON 3:  SCENE SOFT
-BUTTON 4: DND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE BATH ON
-BUTTON 2: SCENE BATH OFF
-BUTTON 3:  SCENE BATH MOOD
-BUTTON 4: DEVICE F
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE BED BRIGHT
-BUTTON 2: SCENE BED OFF
-BUTTON 3:  SCENE BED SOFT
-BUTTON 4: DEVICE B
-BUTTON 5: DND
-BUTTON 6: DEVICE V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE BED BRIGHT
-BUTTON 2: SCENE BED OFF
-BUTTON 3:  SCENE BED SOFT
-BUTTON 4: DEVICE C
-BUTTON 5: DND
-BUTTON 6: DEVICE V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: DEVICE H
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE SMALL BATH ON
-BUTTON 2: SCENE SMALL BATH OFF
-BUTTON 3:  SCENE SMALL BATH MOOD
-BUTTON 4: DEVICE K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: DEVICE D
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE DINING BRIGHT
-BUTTON 2: SCENE DINING OFF
-BUTTON 3:  SCENE DINING SOFT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: SCENE LIVING BRIGHT
-BUTTON 2: SCENE LIVING OFF
-BUTTON 3:  SCENE LIVING SOFT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: GROUP BLIND GROUP OPEN
-BUTTON 2: GROUP BLIND GROUP CLOSE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BUTTON 1: DEVICE N
-</t>
-  </si>
-  <si>
-    <t>BRIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KASTA SCENE
-</t>
+    <t>A ON + 10%
+N ON + 10%
+D ON + 10%
+O ON + 10%
+L ON + 10%
+Q ON + 10%
+J ON
+S ON + 10%</t>
+  </si>
+  <si>
+    <t>N ON + 10%
+L ON + 10%
+S ON + 10%</t>
+  </si>
+  <si>
+    <t>Q ON + 10%
+J ON
+S ON + 10%</t>
+  </si>
+  <si>
+    <t>N ON + 70%
+L ON + 100%
+S ON + 70%</t>
   </si>
 </sst>
 </file>
@@ -825,12 +825,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -861,31 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1381,11 +1381,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1393,10 +1393,10 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1404,20 +1404,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1425,20 +1425,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1446,20 +1446,20 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1467,20 +1467,20 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1488,20 +1488,20 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1509,20 +1509,20 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1530,20 +1530,20 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1551,20 +1551,20 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1572,20 +1572,20 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1593,20 +1593,20 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1627,16 +1627,16 @@
       <c r="A36" s="11"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="32" t="s">
         <v>45</v>
       </c>
@@ -1651,192 +1651,192 @@
       <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="34" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="288" x14ac:dyDescent="0.2">
-      <c r="A61" s="42"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,211 +1845,193 @@
       <c r="C62" s="17"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="45"/>
     </row>
     <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
     </row>
     <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
     </row>
     <row r="71" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
     </row>
     <row r="73" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
     </row>
     <row r="75" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
     </row>
     <row r="77" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="37"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
     </row>
     <row r="79" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
     </row>
     <row r="81" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
     </row>
     <row r="83" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
     </row>
     <row r="85" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
     </row>
     <row r="87" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
     </row>
     <row r="89" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A89" s="42"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B86:C86"/>
@@ -2066,6 +2048,24 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
